--- a/biology/Botanique/Thelypteris_palustris/Thelypteris_palustris.xlsx
+++ b/biology/Botanique/Thelypteris_palustris/Thelypteris_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thelypteris palustris, appelée en français fougère des marais, polystic des marais, polystic à bords roulés ou polystic des marécages est une espèce de fougère de la famille des Thelypteridaceae. On la trouve, comme son nom l'indique, dans les dépressions marécageuses, souvent associée à des aulnes. On en trouve aussi dans les jardins et les parcs.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Thelypteris palustris est une fougère glabre, à rhizome rampant, qui possède des frondes bipennées à long pétiole. Les lobes des pinnules sont entiers, très légèrement enroulés vers la face inférieure.
-Appareil reproducteur
-Les sores sont disposées sur la face inférieure, de part et d'autre de la nervure centrale.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thelypteris palustris est une fougère glabre, à rhizome rampant, qui possède des frondes bipennées à long pétiole. Les lobes des pinnules sont entiers, très légèrement enroulés vers la face inférieure.
 </t>
         </is>
       </c>
@@ -542,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette fougère vit dans des marécages et bois humides, souvent en zone tourbeuse.
-Thelypteris palustris est une des plantes considérées comme caractéristiques de l'association Carici elongatae-Alnetum, c'est-à-dire des bois d'Alnus glutinosa de dépressions marécageuses, mésotrophes et méso-eutrophes[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sores sont disposées sur la face inférieure, de part et d'autre de la nervure centrale.
 </t>
         </is>
       </c>
@@ -574,12 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été aussi appelée Polystichum thelypteris Roth., Dryopteris thelypteris (L.) A.Gray, Nephrodium thelypteris (L.) Strempel et Lastrea thelypteris (L.) C.Presl.
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette fougère vit dans des marécages et bois humides, souvent en zone tourbeuse.
+Thelypteris palustris est une des plantes considérées comme caractéristiques de l'association Carici elongatae-Alnetum, c'est-à-dire des bois d'Alnus glutinosa de dépressions marécageuses, mésotrophes et méso-eutrophes.
 </t>
         </is>
       </c>
@@ -605,12 +628,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été aussi appelée Polystichum thelypteris Roth., Dryopteris thelypteris (L.) A.Gray, Nephrodium thelypteris (L.) Strempel et Lastrea thelypteris (L.) C.Presl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thelypteris_palustris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thelypteris_palustris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Thelypteris palustris et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fougère des marais bénéficie de mesures de protection dans plusieurs régions de France : Alsace, Normandie, Champagne-Ardenne, Provence-Alpes-Côte d'Azur, Bourgogne, Limousin, Rhône-Alpes, Franche-Comté, Lorraine, Centre et Île-de-France[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fougère des marais bénéficie de mesures de protection dans plusieurs régions de France : Alsace, Normandie, Champagne-Ardenne, Provence-Alpes-Côte d'Azur, Bourgogne, Limousin, Rhône-Alpes, Franche-Comté, Lorraine, Centre et Île-de-France.
 </t>
         </is>
       </c>
